--- a/Data/Annotations_samples_124839_technical_replicates.xlsx
+++ b/Data/Annotations_samples_124839_technical_replicates.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u0099120\Dropbox\Shared R projects\qpcrviia7\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4650" yWindow="0" windowWidth="18540" windowHeight="11760"/>
+    <workbookView xWindow="6510" yWindow="0" windowWidth="18540" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="59">
   <si>
     <t>Sample 1</t>
   </si>
@@ -187,12 +192,21 @@
   </si>
   <si>
     <t>Passage</t>
+  </si>
+  <si>
+    <t>Blanc</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Y</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -226,7 +240,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -496,7 +510,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -504,381 +518,453 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="1" max="2" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>51</v>
       </c>
       <c r="B1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" t="s">
         <v>52</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>53</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>54</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
         <v>32</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>32</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
         <v>32</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>32</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
         <v>32</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
       <c r="B13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" t="s">
         <v>38</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>39</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
       <c r="B14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" t="s">
         <v>41</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>32</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>42</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
       <c r="B15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" t="s">
         <v>41</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>32</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>43</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
       <c r="B16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" t="s">
         <v>41</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>32</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>44</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
       <c r="B17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" t="s">
         <v>41</v>
       </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
       <c r="D17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" t="s">
         <v>45</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
       <c r="B18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" t="s">
         <v>38</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>39</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>40</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
       <c r="B19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" t="s">
         <v>38</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>39</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>40</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
       <c r="B20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" t="s">
         <v>41</v>
       </c>
-      <c r="C20" t="s">
-        <v>25</v>
-      </c>
       <c r="D20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" t="s">
         <v>46</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
       <c r="B21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" t="s">
         <v>47</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
       <c r="D21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" t="s">
         <v>48</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
       <c r="B22" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" t="s">
         <v>41</v>
       </c>
-      <c r="C22" t="s">
-        <v>25</v>
-      </c>
       <c r="D22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" t="s">
         <v>48</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
       <c r="B23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" t="s">
         <v>41</v>
       </c>
-      <c r="C23" t="s">
-        <v>25</v>
-      </c>
       <c r="D23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
       <c r="B24" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" t="s">
         <v>50</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
